--- a/other/class1.xlsx
+++ b/other/class1.xlsx
@@ -347,7 +347,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#"/>
+    <numFmt numFmtId="176" formatCode="#"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -428,7 +428,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1445,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="5:9">

--- a/other/class1.xlsx
+++ b/other/class1.xlsx
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="5:9">
@@ -1632,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="5:9">
@@ -1989,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="5:9">
